--- a/results/single_mpu/output.xlsx
+++ b/results/single_mpu/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -476,6 +481,9 @@
       <c r="E2" t="n">
         <v>86.38</v>
       </c>
+      <c r="F2" t="n">
+        <v>90.71000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -493,6 +501,9 @@
       <c r="E3" t="n">
         <v>90.94</v>
       </c>
+      <c r="F3" t="n">
+        <v>91.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -510,6 +521,9 @@
       <c r="E4" t="n">
         <v>86.67</v>
       </c>
+      <c r="F4" t="n">
+        <v>91.67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -527,6 +541,9 @@
       <c r="E5" t="n">
         <v>92.28</v>
       </c>
+      <c r="F5" t="n">
+        <v>90.75999999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -544,6 +561,9 @@
       <c r="E6" t="n">
         <v>90.03</v>
       </c>
+      <c r="F6" t="n">
+        <v>89.92</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -561,6 +581,9 @@
       <c r="E7" t="n">
         <v>90.67</v>
       </c>
+      <c r="F7" t="n">
+        <v>91.52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -578,6 +601,9 @@
       <c r="E8" t="n">
         <v>91.34</v>
       </c>
+      <c r="F8" t="n">
+        <v>92.10000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -595,6 +621,9 @@
       <c r="E9" t="n">
         <v>90.31</v>
       </c>
+      <c r="F9" t="n">
+        <v>90.58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -612,6 +641,9 @@
       <c r="E10" t="n">
         <v>91.22</v>
       </c>
+      <c r="F10" t="n">
+        <v>92.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -628,6 +660,9 @@
       </c>
       <c r="E11" t="n">
         <v>92.36999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>91.12</v>
       </c>
     </row>
   </sheetData>
